--- a/学习笔记/我叫MT/火上打法.xlsx
+++ b/学习笔记/我叫MT/火上打法.xlsx
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老三光棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老二带四小怪[76%~58%~48%]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桶牛/小德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +97,6 @@
   </si>
   <si>
     <t>普攻为闪电链，技能法系群攻，暴击15%，无抗性，不建议输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带小怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,6 +162,22 @@
   <si>
     <t>八回合一个瞄准射击，脆皮必跪
 不建议输出。3700W一次输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老三光棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老二带四小怪[76%~56%~48%]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,32 +688,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24"/>
       <c r="F2" s="22" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
       <c r="J2" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
       <c r="N2" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O2" s="23"/>
       <c r="P2" s="24"/>
@@ -721,10 +721,10 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
@@ -735,30 +735,30 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2</v>
@@ -776,19 +776,19 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="21"/>
@@ -798,7 +798,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
       <c r="J5" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="21"/>
@@ -809,10 +809,10 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
@@ -822,54 +822,54 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="N6" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="8" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
@@ -877,18 +877,20 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="F8" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -897,17 +899,23 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
@@ -917,36 +925,41 @@
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="J10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="F11" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="J11" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
       <c r="N11" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="15"/>
@@ -966,34 +979,12 @@
       <c r="P12" s="18"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J14" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -1006,6 +997,7 @@
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="J11:L12"/>
     <mergeCell ref="N11:P12"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记/我叫MT/火上打法.xlsx
+++ b/学习笔记/我叫MT/火上打法.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>桶牛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老二带小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>or</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,6 +170,22 @@
   </si>
   <si>
     <t>老二带四小怪[76%~56%~48%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or[宗师韧性+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老二带三小怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +354,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -691,40 +705,40 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="J2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="N2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
@@ -735,30 +749,30 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -767,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2</v>
@@ -776,32 +790,32 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="21"/>
-      <c r="F5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="J5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="J5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -809,10 +823,10 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
@@ -822,75 +836,75 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="L6" s="3"/>
       <c r="N6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="J8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="J8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -899,22 +913,22 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
@@ -925,14 +939,14 @@
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="8" t="s">
@@ -943,40 +957,40 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="F11" s="13" t="s">
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="N11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J14" s="11"/>
@@ -984,7 +998,7 @@
       <c r="L14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -992,6 +1006,7 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="B11:D12"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F11:H12"/>

--- a/学习笔记/我叫MT/火上打法.xlsx
+++ b/学习笔记/我叫MT/火上打法.xlsx
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老一[100%~94%~76%]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老二光棍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,40 +148,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老三光棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老二带四小怪[76%~56%~48%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or[宗师韧性+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老二带三小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>八回合一个瞄准射击，脆皮必跪
-不建议输出。3700W一次输出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老三光棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老二带四小怪[76%~56%~48%]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>or[宗师韧性+]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老二带三小怪</t>
+不建议输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老一带小怪[100%~94%~76%]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,6 +353,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,27 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,40 +705,40 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
+      <c r="B2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
@@ -752,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -766,13 +766,13 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2</v>
@@ -793,29 +793,29 @@
         <v>5</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="23"/>
-      <c r="F5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="J5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -823,10 +823,10 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
@@ -836,75 +836,75 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="3"/>
-      <c r="N6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
+      <c r="N6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="J8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="F8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="N8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -913,16 +913,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>0</v>
@@ -939,10 +939,10 @@
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="6"/>
       <c r="J10" s="9" t="s">
@@ -957,40 +957,40 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="J11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="J11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="N11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J14" s="11"/>
@@ -999,6 +999,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -1006,13 +1013,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
